--- a/src/main/resources/templates/进件来源.xlsx
+++ b/src/main/resources/templates/进件来源.xlsx
@@ -1,73 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="19470" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+  <si>
+    <t>进件来源导出</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
   <si>
     <t>订单编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商户名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>身份证号码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>进件时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>进件省份</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>城市</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>具体地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进件来源导出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12421321412</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -78,7 +77,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -86,27 +85,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -132,51 +110,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_Sheet1" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="百分比" xfId="5" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -226,71 +211,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,8 +408,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -460,207 +445,260 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="6"/>
-    <col min="2" max="2" width="24.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.25" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="17" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="6"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.5" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" customHeight="1" spans="1:28">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:28">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:28">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:28">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
     </row>
-    <row r="2" spans="1:28" ht="13.5" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-    </row>
-    <row r="3" spans="1:28" ht="13.5" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-    </row>
-    <row r="4" spans="1:28" ht="14.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
+    <row r="5" spans="5:5">
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I3"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>